--- a/Datasets/Scoring for ARIMA/Best order results/Japan best order.xlsx
+++ b/Datasets/Scoring for ARIMA/Best order results/Japan best order.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\DS-Assignment\Datasets\Scoring for ARIMA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\DS-Assignment\Datasets\Scoring for ARIMA\Best order results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DC4D063-DEAE-4907-9D82-AFB2A1CF3C44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5111E031-2A77-4D3D-9568-4B06087858E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6900" yWindow="2709" windowWidth="23983" windowHeight="13594" xr2:uid="{13C9A9E7-0338-4F19-80F7-90BEA12DC45B}"/>
+    <workbookView xWindow="3960" yWindow="3017" windowWidth="23983" windowHeight="13594" xr2:uid="{13C9A9E7-0338-4F19-80F7-90BEA12DC45B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>ARIMA (0,0,0)</t>
   </si>
@@ -127,6 +127,12 @@
   </si>
   <si>
     <t>ARIMA (1,0,3)</t>
+  </si>
+  <si>
+    <t>ARIMA (2,2,2)</t>
+  </si>
+  <si>
+    <t>ARIMA (2,2,1)</t>
   </si>
 </sst>
 </file>
@@ -179,7 +185,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -211,7 +217,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -222,14 +228,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -544,10 +553,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B181E7A0-5A86-48A7-9C82-6C446FC6778E}">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="B30" sqref="B30:F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -581,556 +590,576 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4">
-        <v>0.58499999999999996</v>
-      </c>
-      <c r="C2" s="4">
-        <v>1.6060000000000001</v>
-      </c>
-      <c r="D2" s="4">
-        <v>2.4119999999999999</v>
-      </c>
-      <c r="E2" s="4">
-        <v>0.68799999999999994</v>
-      </c>
-      <c r="F2" s="4">
-        <v>2.1909999999999998</v>
+      <c r="B2" s="6">
+        <v>0.37</v>
+      </c>
+      <c r="C2" s="6">
+        <v>1.016</v>
+      </c>
+      <c r="D2" s="6">
+        <v>1.5309999999999999</v>
+      </c>
+      <c r="E2" s="6">
+        <v>0.438</v>
+      </c>
+      <c r="F2" s="6">
+        <v>1.3919999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4">
-        <v>0.49299999999999999</v>
-      </c>
-      <c r="C3" s="4">
-        <v>0.98299999999999998</v>
-      </c>
-      <c r="D3" s="4">
-        <v>1.331</v>
-      </c>
-      <c r="E3" s="4">
-        <v>0.89300000000000002</v>
-      </c>
-      <c r="F3" s="4">
-        <v>1.3109999999999999</v>
+      <c r="B3" s="6">
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="C3" s="6">
+        <v>0.621</v>
+      </c>
+      <c r="D3" s="6">
+        <v>0.84299999999999997</v>
+      </c>
+      <c r="E3" s="6">
+        <v>0.56599999999999995</v>
+      </c>
+      <c r="F3" s="6">
+        <v>0.83399999999999996</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4">
-        <v>0.47099999999999997</v>
-      </c>
-      <c r="C4" s="4">
-        <v>0.78300000000000003</v>
-      </c>
-      <c r="D4" s="4">
-        <v>0.95699999999999996</v>
-      </c>
-      <c r="E4" s="4">
-        <v>0.71299999999999997</v>
-      </c>
-      <c r="F4" s="4">
-        <v>0.94599999999999995</v>
+      <c r="B4" s="6">
+        <v>0.29099999999999998</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0.49199999999999999</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0.60699999999999998</v>
+      </c>
+      <c r="E4" s="6">
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="F4" s="6">
+        <v>0.59599999999999997</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="5">
-        <v>0.46200000000000002</v>
-      </c>
-      <c r="C5" s="4">
-        <v>0.69599999999999995</v>
-      </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="4">
-        <v>0.9</v>
+      <c r="B5" s="7">
+        <v>0.28599999999999998</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0.439</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="6">
+        <v>0.55900000000000005</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="4">
-        <v>0.52300000000000002</v>
-      </c>
-      <c r="C6" s="4">
-        <v>0.45300000000000001</v>
-      </c>
-      <c r="D6" s="5">
-        <v>0.36699999999999999</v>
-      </c>
-      <c r="E6" s="4">
-        <v>0.63500000000000001</v>
-      </c>
-      <c r="F6" s="4">
-        <v>0.52400000000000002</v>
+      <c r="B6" s="6">
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="C6" s="6">
+        <v>0.28599999999999998</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0.23400000000000001</v>
+      </c>
+      <c r="E6" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0.33100000000000002</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="4">
-        <v>0.51800000000000002</v>
-      </c>
-      <c r="C7" s="4">
-        <v>0.46</v>
-      </c>
-      <c r="D7" s="4">
-        <v>0.41599999999999998</v>
-      </c>
-      <c r="E7" s="4">
-        <v>0.55800000000000005</v>
-      </c>
-      <c r="F7" s="4">
-        <v>0.504</v>
+      <c r="B7" s="6">
+        <v>0.32600000000000001</v>
+      </c>
+      <c r="C7" s="6">
+        <v>0.29299999999999998</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="E7" s="6">
+        <v>0.35299999999999998</v>
+      </c>
+      <c r="F7" s="6">
+        <v>0.31900000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="4">
-        <v>0.48699999999999999</v>
-      </c>
-      <c r="C8" s="4">
-        <v>0.41399999999999998</v>
-      </c>
-      <c r="D8" s="4">
-        <v>0.39800000000000002</v>
-      </c>
-      <c r="E8" s="4">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="F8" s="4">
-        <v>0.48699999999999999</v>
+      <c r="B8" s="6">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="C8" s="6">
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0.252</v>
+      </c>
+      <c r="E8" s="6">
+        <v>0.36</v>
+      </c>
+      <c r="F8" s="6">
+        <v>0.308</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="4">
-        <v>0.49</v>
-      </c>
-      <c r="C9" s="4">
-        <v>0.41599999999999998</v>
-      </c>
-      <c r="D9" s="4">
-        <v>0.39200000000000002</v>
-      </c>
-      <c r="E9" s="4">
-        <v>0.57099999999999995</v>
-      </c>
-      <c r="F9" s="4">
-        <v>0.48699999999999999</v>
+      <c r="B9" s="6">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="C9" s="6">
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0.249</v>
+      </c>
+      <c r="E9" s="6">
+        <v>0.36</v>
+      </c>
+      <c r="F9" s="6">
+        <v>0.308</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="4">
-        <v>0.79</v>
-      </c>
-      <c r="C10" s="4">
-        <v>0.64800000000000002</v>
-      </c>
-      <c r="D10" s="4">
-        <v>0.46700000000000003</v>
-      </c>
-      <c r="E10" s="4">
-        <v>1.089</v>
-      </c>
-      <c r="F10" s="4">
-        <v>0.81399999999999995</v>
+      <c r="B10" s="6">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="C10" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="D10" s="6">
+        <v>0.30099999999999999</v>
+      </c>
+      <c r="E10" s="6">
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="F10" s="6">
+        <v>0.51500000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="4">
-        <v>0.53300000000000003</v>
-      </c>
-      <c r="C11" s="4">
-        <v>0.45800000000000002</v>
-      </c>
-      <c r="D11" s="4">
-        <v>0.37</v>
-      </c>
-      <c r="E11" s="4">
-        <v>0.63700000000000001</v>
-      </c>
-      <c r="F11" s="4">
-        <v>0.52500000000000002</v>
+      <c r="B11" s="6">
+        <v>0.33100000000000002</v>
+      </c>
+      <c r="C11" s="6">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="D11" s="6">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="E11" s="6">
+        <v>0.40200000000000002</v>
+      </c>
+      <c r="F11" s="6">
+        <v>0.33200000000000002</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="4">
-        <v>0.48499999999999999</v>
-      </c>
-      <c r="C12" s="4">
-        <v>0.49199999999999999</v>
-      </c>
-      <c r="D12" s="4">
-        <v>0.38500000000000001</v>
-      </c>
-      <c r="E12" s="4">
-        <v>0.62</v>
-      </c>
-      <c r="F12" s="4">
-        <v>0.52500000000000002</v>
+      <c r="B12" s="6">
+        <v>0.30099999999999999</v>
+      </c>
+      <c r="C12" s="6">
+        <v>0.311</v>
+      </c>
+      <c r="D12" s="6">
+        <v>0.245</v>
+      </c>
+      <c r="E12" s="6">
+        <v>0.39100000000000001</v>
+      </c>
+      <c r="F12" s="6">
+        <v>0.33200000000000002</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="4">
-        <v>0.504</v>
-      </c>
-      <c r="C13" s="4">
-        <v>0.49399999999999999</v>
-      </c>
-      <c r="D13" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="E13" s="4">
-        <v>0.56399999999999995</v>
-      </c>
-      <c r="F13" s="4">
-        <v>0.50700000000000001</v>
+      <c r="B13" s="6">
+        <v>0.317</v>
+      </c>
+      <c r="C13" s="6">
+        <v>0.313</v>
+      </c>
+      <c r="D13" s="6">
+        <v>0.253</v>
+      </c>
+      <c r="E13" s="6">
+        <v>0.35699999999999998</v>
+      </c>
+      <c r="F13" s="6">
+        <v>0.32100000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="4">
-        <v>0.47299999999999998</v>
-      </c>
-      <c r="C14" s="4">
-        <v>0.441</v>
-      </c>
-      <c r="D14" s="4">
+      <c r="B14" s="6">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="C14" s="6">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D14" s="6">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="E14" s="6">
+        <v>0.36</v>
+      </c>
+      <c r="F14" s="6">
+        <v>0.309</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A15" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="6">
+        <v>0.28100000000000003</v>
+      </c>
+      <c r="D15" s="6">
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="E15" s="6">
+        <v>0.35899999999999999</v>
+      </c>
+      <c r="F15" s="6">
+        <v>0.309</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A16" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="6">
+        <v>0.32800000000000001</v>
+      </c>
+      <c r="C16" s="6">
+        <v>0.29199999999999998</v>
+      </c>
+      <c r="D16" s="6">
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="E16" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="F16" s="6">
+        <v>0.32500000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A17" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="6">
+        <v>0.307</v>
+      </c>
+      <c r="C17" s="6">
+        <v>0.26900000000000002</v>
+      </c>
+      <c r="D17" s="6">
+        <v>0.253</v>
+      </c>
+      <c r="E17" s="6">
+        <v>0.35</v>
+      </c>
+      <c r="F17" s="6">
+        <v>0.309</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A18" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="6">
+        <v>0.307</v>
+      </c>
+      <c r="C18" s="6">
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="D18" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="E18" s="6">
+        <v>0.36</v>
+      </c>
+      <c r="F18" s="6">
+        <v>0.308</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A19" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="C19" s="6">
+        <v>0.252</v>
+      </c>
+      <c r="D19" s="6">
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="E19" s="6">
+        <v>0.36</v>
+      </c>
+      <c r="F19" s="6">
+        <v>0.307</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A20" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="6">
+        <v>0.42599999999999999</v>
+      </c>
+      <c r="C20" s="6">
         <v>0.38400000000000001</v>
       </c>
-      <c r="E14" s="4">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="F14" s="4">
-        <v>0.48799999999999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A15" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="4">
-        <v>0.443</v>
-      </c>
-      <c r="D15" s="4">
-        <v>0.379</v>
-      </c>
-      <c r="E15" s="4">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="F15" s="4">
-        <v>0.48799999999999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A16" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="4">
-        <v>0.52400000000000002</v>
-      </c>
-      <c r="C16" s="4">
-        <v>0.46</v>
-      </c>
-      <c r="D16" s="4">
-        <v>0.38100000000000001</v>
-      </c>
-      <c r="E16" s="4">
-        <v>0.59399999999999997</v>
-      </c>
-      <c r="F16" s="4">
-        <v>0.51400000000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A17" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="4">
-        <v>0.49</v>
-      </c>
-      <c r="C17" s="4">
-        <v>0.42399999999999999</v>
-      </c>
-      <c r="D17" s="4">
-        <v>0.39900000000000002</v>
-      </c>
-      <c r="E17" s="4">
-        <v>0.55500000000000005</v>
-      </c>
-      <c r="F17" s="4">
-        <v>0.48899999999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A18" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="4">
-        <v>0.495</v>
-      </c>
-      <c r="C18" s="4">
-        <v>0.41499999999999998</v>
-      </c>
-      <c r="D18" s="4">
-        <v>0.39400000000000002</v>
-      </c>
-      <c r="E18" s="4">
-        <v>0.57099999999999995</v>
-      </c>
-      <c r="F18" s="4">
-        <v>0.48699999999999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A19" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="4">
-        <v>0.48599999999999999</v>
-      </c>
-      <c r="C19" s="4">
-        <v>0.39500000000000002</v>
-      </c>
-      <c r="D19" s="4">
-        <v>0.40400000000000003</v>
-      </c>
-      <c r="E19" s="4">
-        <v>0.55600000000000005</v>
-      </c>
-      <c r="F19" s="4">
-        <v>0.48899999999999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A20" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="4">
-        <v>0.68400000000000005</v>
-      </c>
-      <c r="C20" s="4">
-        <v>0.60699999999999998</v>
-      </c>
-      <c r="D20" s="4">
-        <v>0.45200000000000001</v>
-      </c>
-      <c r="E20" s="4">
-        <v>0.82</v>
-      </c>
-      <c r="F20" s="4">
-        <v>0.68400000000000005</v>
+      <c r="D20" s="6">
+        <v>0.28899999999999998</v>
+      </c>
+      <c r="E20" s="6">
+        <v>0.51700000000000002</v>
+      </c>
+      <c r="F20" s="6">
+        <v>0.432</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="4">
-        <v>0.49299999999999999</v>
-      </c>
-      <c r="C21" s="4">
-        <v>0.49099999999999999</v>
-      </c>
-      <c r="D21" s="4">
-        <v>0.38900000000000001</v>
-      </c>
-      <c r="E21" s="4">
-        <v>0.58799999999999997</v>
-      </c>
-      <c r="F21" s="4">
-        <v>0.51500000000000001</v>
+      <c r="B21" s="6">
+        <v>0.308</v>
+      </c>
+      <c r="C21" s="6">
+        <v>0.311</v>
+      </c>
+      <c r="D21" s="6">
+        <v>0.247</v>
+      </c>
+      <c r="E21" s="6">
+        <v>0.372</v>
+      </c>
+      <c r="F21" s="6">
+        <v>0.32600000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="4">
-        <v>0.47599999999999998</v>
-      </c>
-      <c r="C22" s="4">
-        <v>0.45100000000000001</v>
-      </c>
-      <c r="D22" s="4">
-        <v>0.38700000000000001</v>
-      </c>
-      <c r="E22" s="4">
-        <v>0.55500000000000005</v>
-      </c>
-      <c r="F22" s="4">
-        <v>0.49</v>
+      <c r="B22" s="6">
+        <v>0.29399999999999998</v>
+      </c>
+      <c r="C22" s="6">
+        <v>0.28599999999999998</v>
+      </c>
+      <c r="D22" s="6">
+        <v>0.245</v>
+      </c>
+      <c r="E22" s="6">
+        <v>0.35</v>
+      </c>
+      <c r="F22" s="6">
+        <v>0.31</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="4">
-        <v>0.47499999999999998</v>
-      </c>
-      <c r="C23" s="4">
-        <v>0.443</v>
-      </c>
-      <c r="D23" s="4">
-        <v>0.38100000000000001</v>
-      </c>
-      <c r="E23" s="4">
-        <v>0.57099999999999995</v>
-      </c>
-      <c r="F23" s="4">
-        <v>0.48799999999999999</v>
+      <c r="B23" s="6">
+        <v>0.29599999999999999</v>
+      </c>
+      <c r="C23" s="6">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D23" s="6">
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="E23" s="6">
+        <v>0.36</v>
+      </c>
+      <c r="F23" s="6">
+        <v>0.309</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="4">
-        <v>0.43099999999999999</v>
-      </c>
-      <c r="D24" s="4">
-        <v>0.39300000000000002</v>
-      </c>
-      <c r="E24" s="4">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="F24" s="4">
-        <v>0.48699999999999999</v>
+      <c r="B24" s="4"/>
+      <c r="C24" s="6">
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="D24" s="6">
+        <v>0.24</v>
+      </c>
+      <c r="E24" s="6">
+        <v>0.35899999999999999</v>
+      </c>
+      <c r="F24" s="6">
+        <v>0.308</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="4">
-        <v>0.52400000000000002</v>
-      </c>
-      <c r="C25" s="4">
-        <v>0.44700000000000001</v>
-      </c>
-      <c r="D25" s="4">
-        <v>0.38500000000000001</v>
-      </c>
-      <c r="E25" s="4">
-        <v>0.60099999999999998</v>
-      </c>
-      <c r="F25" s="4">
-        <v>0.50600000000000001</v>
+      <c r="B25" s="6">
+        <v>0.32700000000000001</v>
+      </c>
+      <c r="C25" s="6">
+        <v>0.28399999999999997</v>
+      </c>
+      <c r="D25" s="6">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="E25" s="6">
+        <v>0.38</v>
+      </c>
+      <c r="F25" s="6">
+        <v>0.32</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="4">
-        <v>0.48599999999999999</v>
-      </c>
-      <c r="C26" s="4">
-        <v>0.40799999999999997</v>
-      </c>
-      <c r="D26" s="4">
-        <v>0.39200000000000002</v>
-      </c>
-      <c r="E26" s="4">
-        <v>0.57599999999999996</v>
-      </c>
-      <c r="F26" s="4">
-        <v>0.48499999999999999</v>
+      <c r="B26" s="6">
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="C26" s="6">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="D26" s="6">
+        <v>0.249</v>
+      </c>
+      <c r="E26" s="6">
+        <v>0.36299999999999999</v>
+      </c>
+      <c r="F26" s="6">
+        <v>0.307</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="4">
-        <v>0.50600000000000001</v>
-      </c>
-      <c r="C27" s="5">
-        <v>0.372</v>
-      </c>
-      <c r="D27" s="4">
-        <v>0.39500000000000002</v>
-      </c>
-      <c r="E27" s="4">
-        <v>0.55400000000000005</v>
-      </c>
-      <c r="F27" s="4">
-        <v>0.45800000000000002</v>
+      <c r="B27" s="6">
+        <v>0.314</v>
+      </c>
+      <c r="C27" s="7">
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="D27" s="6">
+        <v>0.251</v>
+      </c>
+      <c r="E27" s="6">
+        <v>0.34699999999999998</v>
+      </c>
+      <c r="F27" s="6">
+        <v>0.28799999999999998</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A28" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="7">
-        <v>0.50900000000000001</v>
-      </c>
-      <c r="C28" s="7">
-        <v>0.38500000000000001</v>
-      </c>
-      <c r="D28" s="7">
-        <v>0.39700000000000002</v>
-      </c>
-      <c r="E28" s="9">
-        <v>0.51</v>
-      </c>
-      <c r="F28" s="9">
-        <v>0.435</v>
+      <c r="B28" s="9">
+        <v>0.318</v>
+      </c>
+      <c r="C28" s="9">
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="D28" s="10">
+        <v>0.214</v>
+      </c>
+      <c r="E28" s="10">
+        <v>0.313</v>
+      </c>
+      <c r="F28" s="10">
+        <v>0.28599999999999998</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="4">
-        <v>0.66200000000000003</v>
-      </c>
-      <c r="C29" s="4">
-        <v>0.57199999999999995</v>
-      </c>
-      <c r="D29" s="4">
-        <v>0.46300000000000002</v>
-      </c>
-      <c r="E29" s="4">
-        <v>0.77400000000000002</v>
-      </c>
-      <c r="F29" s="4">
-        <v>0.63800000000000001</v>
-      </c>
+      <c r="B29" s="6">
+        <v>0.41099999999999998</v>
+      </c>
+      <c r="C29" s="6">
+        <v>0.36199999999999999</v>
+      </c>
+      <c r="D29" s="6">
+        <v>0.29099999999999998</v>
+      </c>
+      <c r="E29" s="6">
+        <v>0.49</v>
+      </c>
+      <c r="F29" s="6">
+        <v>0.40200000000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A30" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A31" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
